--- a/Data/RQ1/RQ1-topk.xlsx
+++ b/Data/RQ1/RQ1-topk.xlsx
@@ -4,14 +4,27 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21731" windowHeight="12335"/>
+    <workbookView windowWidth="21288" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -660,7 +673,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -670,17 +683,20 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -996,7 +1012,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J7" sqref="A1:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -1052,58 +1068,59 @@
         <v>1</v>
       </c>
       <c r="B3" s="2">
-        <v>0.9572</v>
+        <v>0.9577</v>
       </c>
       <c r="C3" s="2">
-        <v>0.9561</v>
+        <v>0.9568</v>
       </c>
       <c r="D3" s="2">
-        <v>0.9566</v>
+        <v>0.9573</v>
       </c>
       <c r="E3" s="2">
-        <v>0.9572</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0.9163</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0.9163</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0.9163</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0.9163</v>
+        <v>0.9577</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="4">
+        <v>0.9086</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0.9086</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0.9086</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0.9086</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.9745</v>
-      </c>
-      <c r="C4" s="4">
-        <v>0.9745</v>
-      </c>
-      <c r="D4" s="4">
-        <v>0.9745</v>
-      </c>
-      <c r="E4" s="4">
-        <v>0.9745</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="6">
-        <v>0.9299</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.9299</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.9299</v>
-      </c>
-      <c r="J4" s="6">
-        <v>0.9299</v>
+      <c r="B4" s="5">
+        <v>0.9753</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.9753</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0.9753</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.9753</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7">
+        <v>0.9252</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.9252</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0.9252</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0.9252</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1122,17 +1139,18 @@
       <c r="E5" s="2">
         <v>0.9737</v>
       </c>
-      <c r="G5" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.9299</v>
+      <c r="F5" s="3"/>
+      <c r="G5" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="H5" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="J5" s="4">
+        <v>0.9252</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1140,28 +1158,29 @@
         <v>4</v>
       </c>
       <c r="B6" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="C6" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="D6" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="E6" s="2">
-        <v>0.9728</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0.9299</v>
+        <v>0.9731</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="H6" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="J6" s="4">
+        <v>0.9252</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1169,28 +1188,29 @@
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="C7" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="D7" s="2">
-        <v>0.9728</v>
+        <v>0.9731</v>
       </c>
       <c r="E7" s="2">
-        <v>0.9728</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0.9299</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.9299</v>
+        <v>0.9731</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="H7" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0.9252</v>
+      </c>
+      <c r="J7" s="4">
+        <v>0.9252</v>
       </c>
     </row>
   </sheetData>
